--- a/data/trans_orig/P1402-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>47302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35498</v>
+        <v>35600</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61954</v>
+        <v>61934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08097635376912625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06076991768618242</v>
+        <v>0.06094408127908024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1060593096189776</v>
+        <v>0.1060249655663207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -765,19 +765,19 @@
         <v>86945</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69050</v>
+        <v>69814</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104867</v>
+        <v>105643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09426625389138338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07486466149578108</v>
+        <v>0.07569337695545035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1136979860201966</v>
+        <v>0.1145390661280155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -786,19 +786,19 @@
         <v>134246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113871</v>
+        <v>113938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160556</v>
+        <v>157728</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08911304303389651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07558787905579067</v>
+        <v>0.07563227383315026</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1065771532838674</v>
+        <v>0.1047001861372388</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>536839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>522187</v>
+        <v>522207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548643</v>
+        <v>548541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9190236462308737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8939406903810224</v>
+        <v>0.8939750344336794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9392300823138177</v>
+        <v>0.9390559187209198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>800</v>
@@ -836,19 +836,19 @@
         <v>835388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>817466</v>
+        <v>816690</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>853283</v>
+        <v>852519</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9057337461086167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8863020139798036</v>
+        <v>0.8854609338719847</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.925135338504219</v>
+        <v>0.9243066230445497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1325</v>
@@ -857,19 +857,19 @@
         <v>1372228</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1345918</v>
+        <v>1348746</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1392603</v>
+        <v>1392536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9108869569661034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8934228467161325</v>
+        <v>0.8952998138627613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9244121209442092</v>
+        <v>0.9243677261668498</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>60394</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48062</v>
+        <v>46925</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77509</v>
+        <v>75631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05602967165640441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04458902915482124</v>
+        <v>0.04353401029511896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07190747961196474</v>
+        <v>0.07016565601572036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -982,19 +982,19 @@
         <v>66062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52235</v>
+        <v>51242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83575</v>
+        <v>82968</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06246758439178085</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04939322001574453</v>
+        <v>0.04845449086409908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07902759924973192</v>
+        <v>0.07845416195687993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -1003,19 +1003,19 @@
         <v>126456</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105291</v>
+        <v>106287</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147846</v>
+        <v>149205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05921794328702176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04930673959508227</v>
+        <v>0.04977310332148472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06923493071838617</v>
+        <v>0.06987088118141228</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1017500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000385</v>
+        <v>1002263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1029832</v>
+        <v>1030969</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9439703283435956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9280925203880352</v>
+        <v>0.9298343439842797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9554109708451787</v>
+        <v>0.9564659897048806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>963</v>
@@ -1053,19 +1053,19 @@
         <v>991476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>973963</v>
+        <v>974570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1005303</v>
+        <v>1006296</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9375324156082191</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.920972400750268</v>
+        <v>0.9215458380431194</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.950606779984255</v>
+        <v>0.9515455091359009</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1954</v>
@@ -1074,19 +1074,19 @@
         <v>2008976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1987586</v>
+        <v>1986227</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2030141</v>
+        <v>2029145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9407820567129782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9307650692816138</v>
+        <v>0.9301291188185885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9506932604049178</v>
+        <v>0.9502268966785156</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>47928</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36494</v>
+        <v>36146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61550</v>
+        <v>61255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04273172329079442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03253734232678888</v>
+        <v>0.03222698847004782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05487694655390238</v>
+        <v>0.05461397771501499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1199,19 +1199,19 @@
         <v>57445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42590</v>
+        <v>43883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72978</v>
+        <v>72869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05779571336922378</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04284982471330041</v>
+        <v>0.04415063873604377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07342297815288697</v>
+        <v>0.0733135699490492</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -1220,19 +1220,19 @@
         <v>105373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85886</v>
+        <v>86655</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126207</v>
+        <v>127973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04980922579875929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04059785490021503</v>
+        <v>0.04096140170977908</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05965718932778487</v>
+        <v>0.06049228665681938</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1073666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1060044</v>
+        <v>1060339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1085100</v>
+        <v>1085448</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9572682767092056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9451230534460976</v>
+        <v>0.945386022284985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.967462657673211</v>
+        <v>0.9677730115299521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>926</v>
@@ -1270,19 +1270,19 @@
         <v>936495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>920962</v>
+        <v>921071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>951350</v>
+        <v>950057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9422042866307763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.926577021847113</v>
+        <v>0.9266864300509507</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9571501752866995</v>
+        <v>0.9558493612639563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1980</v>
@@ -1291,19 +1291,19 @@
         <v>2010161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1989327</v>
+        <v>1987561</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2029648</v>
+        <v>2028879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9501907742012407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9403428106722151</v>
+        <v>0.9395077133431806</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9594021450997851</v>
+        <v>0.959038598290221</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>21209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13855</v>
+        <v>12934</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31409</v>
+        <v>31092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04742682426340804</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03098103627591077</v>
+        <v>0.02892213273368012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07023547740105104</v>
+        <v>0.06952677508778747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>11989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6377</v>
+        <v>6217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20309</v>
+        <v>20610</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03514163853022653</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01869341177329058</v>
+        <v>0.01822403886364731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05952855073186593</v>
+        <v>0.06041170039541416</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1437,19 +1437,19 @@
         <v>33198</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23095</v>
+        <v>23771</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46820</v>
+        <v>45701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04211046761552274</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02929470062163595</v>
+        <v>0.03015233587727552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05938896180225696</v>
+        <v>0.05796970825800636</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>425991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>415791</v>
+        <v>416108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>433345</v>
+        <v>434266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9525731757365919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9297645225989488</v>
+        <v>0.9304732249122126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9690189637240891</v>
+        <v>0.9710778672663198</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -1487,19 +1487,19 @@
         <v>329169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320849</v>
+        <v>320548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334781</v>
+        <v>334941</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9648583614697734</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9404714492681339</v>
+        <v>0.9395882996045859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9813065882267094</v>
+        <v>0.9817759611363528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>742</v>
@@ -1508,19 +1508,19 @@
         <v>755160</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741538</v>
+        <v>742657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>765263</v>
+        <v>764587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9578895323844773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9406110381977432</v>
+        <v>0.9420302917419937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9707052993783643</v>
+        <v>0.9698476641227247</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>176833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153960</v>
+        <v>152564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203976</v>
+        <v>202654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05473288245357177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04765336340540163</v>
+        <v>0.04722132723212781</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06313416301915044</v>
+        <v>0.0627249687796026</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -1633,19 +1633,19 @@
         <v>222441</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>193711</v>
+        <v>194187</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>252421</v>
+        <v>251918</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06710199913539254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05843512384437482</v>
+        <v>0.05857867930910862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07614574855283213</v>
+        <v>0.07599402933531212</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>401</v>
@@ -1654,19 +1654,19 @@
         <v>399274</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>362294</v>
+        <v>361425</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>437557</v>
+        <v>438640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06099693695288615</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05534750755511467</v>
+        <v>0.05521483740667835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06684541497282287</v>
+        <v>0.0670109671896042</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3053996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3026853</v>
+        <v>3028175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3076869</v>
+        <v>3078265</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9452671175464282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9368658369808494</v>
+        <v>0.9372750312203975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9523466365945981</v>
+        <v>0.9527786727678723</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3017</v>
@@ -1704,19 +1704,19 @@
         <v>3092528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3062548</v>
+        <v>3063051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3121258</v>
+        <v>3120782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9328980008646075</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9238542514471679</v>
+        <v>0.9240059706646878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9415648761556252</v>
+        <v>0.9414213206908909</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6001</v>
@@ -1725,19 +1725,19 @@
         <v>6146524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6108241</v>
+        <v>6107158</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6183504</v>
+        <v>6184373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9390030630471139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9331545850271771</v>
+        <v>0.9329890328103958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9446524924448854</v>
+        <v>0.9447851625933215</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>75133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59972</v>
+        <v>59321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94473</v>
+        <v>93317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07197052834909873</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05744807608819711</v>
+        <v>0.05682437929315329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09049694608859624</v>
+        <v>0.0893900935465603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -2090,19 +2090,19 @@
         <v>118886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99967</v>
+        <v>99363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141778</v>
+        <v>141709</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1062759284449559</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08936394044331181</v>
+        <v>0.08882413265250728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1267398702289448</v>
+        <v>0.1266785612247096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -2111,19 +2111,19 @@
         <v>194018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167629</v>
+        <v>167150</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222044</v>
+        <v>222829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08971586015759202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.077513252017434</v>
+        <v>0.07729153740446799</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1026750973804734</v>
+        <v>0.1030379849533142</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>968802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>949462</v>
+        <v>950618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>983963</v>
+        <v>984614</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9280294716509013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.909503053911404</v>
+        <v>0.9106099064534398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.942551923911803</v>
+        <v>0.9431756207068467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>916</v>
@@ -2161,19 +2161,19 @@
         <v>999767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>976875</v>
+        <v>976944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1018686</v>
+        <v>1019290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8937240715550441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8732601297710553</v>
+        <v>0.8733214387752904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9106360595566884</v>
+        <v>0.9111758673474927</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1824</v>
@@ -2182,19 +2182,19 @@
         <v>1968570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1940544</v>
+        <v>1939759</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1994959</v>
+        <v>1995438</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.910284139842408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8973249026195266</v>
+        <v>0.8969620150466858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.922486747982566</v>
+        <v>0.922708462595532</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>69730</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54628</v>
+        <v>54512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89059</v>
+        <v>87596</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07136615148202027</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05590979193099058</v>
+        <v>0.05579122798862039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09114901789006144</v>
+        <v>0.0896513102911651</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -2307,19 +2307,19 @@
         <v>100667</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82140</v>
+        <v>81716</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119785</v>
+        <v>120762</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09215874722341605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07519741272732508</v>
+        <v>0.07480942803365044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1096604629583565</v>
+        <v>0.1105544347218394</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -2328,19 +2328,19 @@
         <v>170397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142035</v>
+        <v>146855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195847</v>
+        <v>197923</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08234146567171505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0686358427426344</v>
+        <v>0.07096481541133448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09463961579391819</v>
+        <v>0.0956427497918777</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>907343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>888014</v>
+        <v>889477</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922445</v>
+        <v>922561</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9286338485179797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9088509821099386</v>
+        <v>0.910348689708835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9440902080690095</v>
+        <v>0.9442087720113796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>926</v>
@@ -2378,19 +2378,19 @@
         <v>991660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>972542</v>
+        <v>971565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1010187</v>
+        <v>1010611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.907841252776584</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8903395370416435</v>
+        <v>0.8894455652781605</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9248025872726747</v>
+        <v>0.9251905719663495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1788</v>
@@ -2399,19 +2399,19 @@
         <v>1899003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1873553</v>
+        <v>1871477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1927365</v>
+        <v>1922545</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9176585343282849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.905360384206082</v>
+        <v>0.9043572502081223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9313641572573658</v>
+        <v>0.9290351845886655</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>75928</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58507</v>
+        <v>60836</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93854</v>
+        <v>94698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08578375875756961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06610123404401586</v>
+        <v>0.06873187240885069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1060364129996001</v>
+        <v>0.1069893579189602</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -2524,19 +2524,19 @@
         <v>60808</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46100</v>
+        <v>47230</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77248</v>
+        <v>76800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06943180366964008</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05263799868616392</v>
+        <v>0.05392785178161524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08820268918114461</v>
+        <v>0.08769205082228981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -2545,19 +2545,19 @@
         <v>136737</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116274</v>
+        <v>115450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161467</v>
+        <v>160939</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07765105120602414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06603077722805506</v>
+        <v>0.06556246467147929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0916952123329792</v>
+        <v>0.09139538122849805</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>809187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>791261</v>
+        <v>790417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>826608</v>
+        <v>824279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9142162412424304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8939635870003999</v>
+        <v>0.8930106420810399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9338987659559841</v>
+        <v>0.9312681275911493</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>764</v>
@@ -2595,19 +2595,19 @@
         <v>814988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>798548</v>
+        <v>798996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>829696</v>
+        <v>828566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9305681963303599</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9117973108188554</v>
+        <v>0.9123079491777097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.947362001313836</v>
+        <v>0.9460721482183847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1525</v>
@@ -2616,19 +2616,19 @@
         <v>1624174</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1599444</v>
+        <v>1599972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1644637</v>
+        <v>1645461</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9223489487939759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9083047876670208</v>
+        <v>0.9086046187715019</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9339692227719449</v>
+        <v>0.934437535328521</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>34359</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23965</v>
+        <v>23284</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46936</v>
+        <v>46780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06830434915236162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04764292044265463</v>
+        <v>0.04628797970521162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09330814742954807</v>
+        <v>0.09299726807828211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>25733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17241</v>
+        <v>17909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37186</v>
+        <v>37261</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05683870989026917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03808107711166574</v>
+        <v>0.03955788489084605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08213681939537465</v>
+        <v>0.08230084949792456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -2762,19 +2762,19 @@
         <v>60092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46757</v>
+        <v>46223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76857</v>
+        <v>76941</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06287316097363695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0489212104796534</v>
+        <v>0.04836277794764313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08041432717201617</v>
+        <v>0.08050267879013709</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>468664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456087</v>
+        <v>456243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479058</v>
+        <v>479739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9316956508476384</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9066918525704523</v>
+        <v>0.9070027319217179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9523570795573454</v>
+        <v>0.9537120202947884</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>387</v>
@@ -2812,19 +2812,19 @@
         <v>427003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>415550</v>
+        <v>415475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>435495</v>
+        <v>434827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9431612901097308</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9178631806046255</v>
+        <v>0.9176991505020755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9619189228883344</v>
+        <v>0.960442115109154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>815</v>
@@ -2833,19 +2833,19 @@
         <v>895666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>878901</v>
+        <v>878817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>909001</v>
+        <v>909535</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9371268390263631</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.919585672827984</v>
+        <v>0.9194973212098629</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9510787895203466</v>
+        <v>0.951637222052357</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>255150</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>224555</v>
+        <v>221947</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>288768</v>
+        <v>287770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0748426874321536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06586853210910538</v>
+        <v>0.06510341786077049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08470395371476026</v>
+        <v>0.0844111028638465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -2958,19 +2958,19 @@
         <v>306094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>275725</v>
+        <v>271506</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>343839</v>
+        <v>340319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08647927064745017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07789908815255024</v>
+        <v>0.07670709066828969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09714314330830992</v>
+        <v>0.09614846548967868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>523</v>
@@ -2979,19 +2979,19 @@
         <v>561244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>517013</v>
+        <v>516527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>614628</v>
+        <v>612333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08077013781049133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07440470182369656</v>
+        <v>0.07433477506388375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0884528219388515</v>
+        <v>0.08812245376136355</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3153995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3120377</v>
+        <v>3121375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3184590</v>
+        <v>3187198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9251573125678464</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9152960462852395</v>
+        <v>0.9155888971361537</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9341314678908945</v>
+        <v>0.9348965821392299</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2993</v>
@@ -3029,19 +3029,19 @@
         <v>3233417</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3195672</v>
+        <v>3199192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3263786</v>
+        <v>3268005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9135207293525498</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.90285685669169</v>
+        <v>0.9038515345103214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9221009118474497</v>
+        <v>0.9232929093317103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5952</v>
@@ -3050,19 +3050,19 @@
         <v>6387413</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6334029</v>
+        <v>6336324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6431644</v>
+        <v>6432130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9192298621895086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9115471780611482</v>
+        <v>0.9118775462386363</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.925595298176303</v>
+        <v>0.9256652249361162</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>114030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>95646</v>
+        <v>94896</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136910</v>
+        <v>133734</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1010908597066562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0847923942989517</v>
+        <v>0.08412756681088331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1213745953534016</v>
+        <v>0.118559048810132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -3415,19 +3415,19 @@
         <v>126867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104324</v>
+        <v>106796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148434</v>
+        <v>152586</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1007231643263916</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08282573202417053</v>
+        <v>0.08478792556194324</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1178454947644323</v>
+        <v>0.1211422135388447</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>224</v>
@@ -3436,19 +3436,19 @@
         <v>240897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>208474</v>
+        <v>209511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>274237</v>
+        <v>270417</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1008968813085409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08731701137281037</v>
+        <v>0.08775108997927518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1148609652803816</v>
+        <v>0.1132608050806679</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1013967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>991087</v>
+        <v>994263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1032351</v>
+        <v>1033101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8989091402933438</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8786254046465983</v>
+        <v>0.8814409511898679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9152076057010484</v>
+        <v>0.9158724331891164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1075</v>
@@ -3486,19 +3486,19 @@
         <v>1132694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1111127</v>
+        <v>1106975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1155237</v>
+        <v>1152765</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8992768356736084</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8821545052355677</v>
+        <v>0.8788577864611554</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9171742679758296</v>
+        <v>0.9152120744380567</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2030</v>
@@ -3507,19 +3507,19 @@
         <v>2146661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2113321</v>
+        <v>2117141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2179084</v>
+        <v>2178047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8991031186914591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8851390347196184</v>
+        <v>0.8867391949193321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9126829886271897</v>
+        <v>0.9122489100207243</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>83962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68860</v>
+        <v>68188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101804</v>
+        <v>103938</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09238500671780407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0757676148736684</v>
+        <v>0.07502880714604611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1120167956440209</v>
+        <v>0.1143649244237074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -3632,19 +3632,19 @@
         <v>79328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61050</v>
+        <v>62828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98854</v>
+        <v>99252</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07881717042916155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06065717531850434</v>
+        <v>0.06242390968298024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09821851463406267</v>
+        <v>0.0986131709783582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -3653,19 +3653,19 @@
         <v>163289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138519</v>
+        <v>140809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189189</v>
+        <v>191292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08525521424931332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07232237336691463</v>
+        <v>0.07351779564353719</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09877763996213791</v>
+        <v>0.09987565845163296</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>824863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>807021</v>
+        <v>804887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>839965</v>
+        <v>840637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.907614993282196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.887983204355979</v>
+        <v>0.8856350755762926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9242323851263315</v>
+        <v>0.9249711928539539</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>884</v>
@@ -3703,19 +3703,19 @@
         <v>927147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>907621</v>
+        <v>907223</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>945425</v>
+        <v>943647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9211828295708384</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9017814853659374</v>
+        <v>0.901386829021641</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9393428246814957</v>
+        <v>0.9375760903170197</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1679</v>
@@ -3724,19 +3724,19 @@
         <v>1752011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1726111</v>
+        <v>1724008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1776781</v>
+        <v>1774491</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9147447857506866</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9012223600378619</v>
+        <v>0.900124341548367</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9276776266330853</v>
+        <v>0.9264822043564628</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>53551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40309</v>
+        <v>41260</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68556</v>
+        <v>69061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06500856461295038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04893245469890707</v>
+        <v>0.05008754329836689</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08322289836863664</v>
+        <v>0.08383654812001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3849,19 +3849,19 @@
         <v>60659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46808</v>
+        <v>46803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79105</v>
+        <v>77360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07866993606718144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06070547702716458</v>
+        <v>0.06069919311057313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1025925209278484</v>
+        <v>0.1003299817688873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -3870,19 +3870,19 @@
         <v>114211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93916</v>
+        <v>92964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137900</v>
+        <v>136627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07161353103146795</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05888840028817167</v>
+        <v>0.05829138596626411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08646770760055968</v>
+        <v>0.08566915706356464</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>770208</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>755203</v>
+        <v>754698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>783450</v>
+        <v>782499</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9349914353870497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9167771016313636</v>
+        <v>0.91616345187999</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9510675453010931</v>
+        <v>0.9499124567016333</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>676</v>
@@ -3920,19 +3920,19 @@
         <v>710400</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>691954</v>
+        <v>693699</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724251</v>
+        <v>724256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9213300639328186</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8974074790721513</v>
+        <v>0.8996700182311127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9392945229728352</v>
+        <v>0.939300806889427</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1408</v>
@@ -3941,19 +3941,19 @@
         <v>1480607</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1456918</v>
+        <v>1458191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1500902</v>
+        <v>1501854</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9283864689685321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9135322923994402</v>
+        <v>0.9143308429364354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9411115997118283</v>
+        <v>0.9417086140337358</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>42393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30393</v>
+        <v>31077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55787</v>
+        <v>55974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08366570951260213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05998257351221382</v>
+        <v>0.06133127792642573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.110098436144578</v>
+        <v>0.1104677132260268</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -4066,19 +4066,19 @@
         <v>27740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18782</v>
+        <v>17857</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41675</v>
+        <v>39957</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05664775288261985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03835507668297555</v>
+        <v>0.03646609941604272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08510317093262805</v>
+        <v>0.08159428440937114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -4087,19 +4087,19 @@
         <v>70134</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54591</v>
+        <v>54827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87970</v>
+        <v>87236</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07038725933384082</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0547885554107618</v>
+        <v>0.0550256464676356</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08828783156495913</v>
+        <v>0.0875518148168643</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>464308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>450914</v>
+        <v>450727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>476308</v>
+        <v>475624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9163342904873979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8899015638554221</v>
+        <v>0.8895322867739732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9400174264877862</v>
+        <v>0.9386687220735743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>432</v>
@@ -4137,19 +4137,19 @@
         <v>461958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>448023</v>
+        <v>449741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>470916</v>
+        <v>471841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9433522471173802</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9148968290673719</v>
+        <v>0.9184057155906287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9616449233170243</v>
+        <v>0.9635339005839573</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>861</v>
@@ -4158,19 +4158,19 @@
         <v>926264</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>908428</v>
+        <v>909162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>941807</v>
+        <v>941571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9296127406661592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9117121684350408</v>
+        <v>0.9124481851831356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9452114445892382</v>
+        <v>0.9449743535323644</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>293937</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>262153</v>
+        <v>263618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>326101</v>
+        <v>329933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08729202749264584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07785308046826633</v>
+        <v>0.07828801748722926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0968438626078667</v>
+        <v>0.09798194175294987</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>255</v>
@@ -4283,19 +4283,19 @@
         <v>294594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260728</v>
+        <v>263270</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>333468</v>
+        <v>331342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08353026168996942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0739277772700879</v>
+        <v>0.07464861032040548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09455266458104179</v>
+        <v>0.09395000683825522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>549</v>
@@ -4304,19 +4304,19 @@
         <v>588531</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>543360</v>
+        <v>546854</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>637282</v>
+        <v>645456</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08536762608507339</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07881551787368091</v>
+        <v>0.07932231298360173</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09243902736624994</v>
+        <v>0.09362474100101195</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3073345</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3041181</v>
+        <v>3037349</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3105129</v>
+        <v>3103664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9127079725073541</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9031561373921335</v>
+        <v>0.9020180582470501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9221469195317338</v>
+        <v>0.9217119825127706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3067</v>
@@ -4354,19 +4354,19 @@
         <v>3232198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3193324</v>
+        <v>3195450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3266064</v>
+        <v>3263522</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9164697383100305</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9054473354189582</v>
+        <v>0.9060499931617447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9260722227299121</v>
+        <v>0.9253513896795945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5978</v>
@@ -4375,19 +4375,19 @@
         <v>6305544</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6256793</v>
+        <v>6248619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6350715</v>
+        <v>6347221</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9146323739149266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9075609726337496</v>
+        <v>0.9063752589989877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9211844821263191</v>
+        <v>0.9206776870163982</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>47363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36077</v>
+        <v>36219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59845</v>
+        <v>60666</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09589734552362243</v>
+        <v>0.09589734552362245</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07304549084687202</v>
+        <v>0.07333262876925278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1211688505853079</v>
+        <v>0.1228312588708953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>119</v>
@@ -4740,19 +4740,19 @@
         <v>67448</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56464</v>
+        <v>56048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79787</v>
+        <v>81743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1081622403153052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09054762167644193</v>
+        <v>0.08988085742979159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.127950305189478</v>
+        <v>0.1310859802359732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -4761,19 +4761,19 @@
         <v>114811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97358</v>
+        <v>100800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132535</v>
+        <v>135127</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1027414704363204</v>
+        <v>0.1027414704363205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08712323549075759</v>
+        <v>0.0902032405670784</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1186023806212604</v>
+        <v>0.1209213201436755</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>446533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>434051</v>
+        <v>433230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>457819</v>
+        <v>457677</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9041026544763777</v>
+        <v>0.9041026544763776</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.878831149414692</v>
+        <v>0.8771687411291044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9269545091531278</v>
+        <v>0.9266673712307462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>742</v>
@@ -4811,19 +4811,19 @@
         <v>556132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>543793</v>
+        <v>541837</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>567116</v>
+        <v>567532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8918377596846946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8720496948105217</v>
+        <v>0.8689140197640265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9094523783235579</v>
+        <v>0.9101191425702081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1137</v>
@@ -4832,19 +4832,19 @@
         <v>1002665</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>984941</v>
+        <v>982349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1020118</v>
+        <v>1016676</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8972585295636795</v>
+        <v>0.8972585295636798</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8813976193787397</v>
+        <v>0.8790786798563245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9128767645092424</v>
+        <v>0.9097967594329218</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>97224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81207</v>
+        <v>79932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114400</v>
+        <v>116291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1013666079247127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08466749096358787</v>
+        <v>0.08333809415527067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1192741431754641</v>
+        <v>0.1212464543226733</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -4957,19 +4957,19 @@
         <v>103480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89888</v>
+        <v>88434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117815</v>
+        <v>117112</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09273678426160976</v>
+        <v>0.09273678426160975</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0805556460099465</v>
+        <v>0.07925300814697615</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1055831022080218</v>
+        <v>0.1049535805497899</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>325</v>
@@ -4978,19 +4978,19 @@
         <v>200704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178374</v>
+        <v>178019</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225208</v>
+        <v>223409</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09672580436750253</v>
+        <v>0.09672580436750251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08596407786513433</v>
+        <v>0.08579290224886581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1085346925193511</v>
+        <v>0.1076678313621327</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>861909</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>844733</v>
+        <v>842842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>877926</v>
+        <v>879201</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8986333920752874</v>
+        <v>0.8986333920752873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8807258568245359</v>
+        <v>0.8787535456773267</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9153325090364122</v>
+        <v>0.9166619058447293</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1411</v>
@@ -5028,19 +5028,19 @@
         <v>1012369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>998034</v>
+        <v>998737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025961</v>
+        <v>1027415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9072632157383902</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8944168977919782</v>
+        <v>0.8950464194502099</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9194443539900535</v>
+        <v>0.9207469918530238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2191</v>
@@ -5049,19 +5049,19 @@
         <v>1874278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1849774</v>
+        <v>1851573</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1896608</v>
+        <v>1896963</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9032741956324973</v>
+        <v>0.9032741956324976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8914653074806487</v>
+        <v>0.8923321686378669</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9140359221348651</v>
+        <v>0.9142070977511335</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>101522</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86221</v>
+        <v>86438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119215</v>
+        <v>120306</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09701309898006788</v>
+        <v>0.09701309898006787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08239136116732601</v>
+        <v>0.08259886266049908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.113920519529736</v>
+        <v>0.1149626127308936</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -5174,19 +5174,19 @@
         <v>64383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52765</v>
+        <v>53491</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76481</v>
+        <v>77165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06157365526281156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0504633260934376</v>
+        <v>0.05115736321382142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07314461581286913</v>
+        <v>0.07379875949111236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -5195,19 +5195,19 @@
         <v>165905</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145366</v>
+        <v>145575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187207</v>
+        <v>185678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07930066256206891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06948339312458232</v>
+        <v>0.0695831076741103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08948266728778384</v>
+        <v>0.08875203238119199</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>944957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>927264</v>
+        <v>926173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>960258</v>
+        <v>960041</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9029869010199322</v>
+        <v>0.902986901019932</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.886079480470264</v>
+        <v>0.8850373872691062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9176086388326739</v>
+        <v>0.9174011373395009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1391</v>
@@ -5245,19 +5245,19 @@
         <v>981236</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>969138</v>
+        <v>968454</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>992854</v>
+        <v>992128</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9384263447371883</v>
+        <v>0.9384263447371884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9268553841871309</v>
+        <v>0.9262012405088876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9495366739065624</v>
+        <v>0.9488426367861788</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2284</v>
@@ -5266,19 +5266,19 @@
         <v>1926193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1904891</v>
+        <v>1906420</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1946732</v>
+        <v>1946523</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9206993374379311</v>
+        <v>0.9206993374379312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9105173327122162</v>
+        <v>0.911247967618808</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9305166068754177</v>
+        <v>0.9304168923258895</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>77158</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63200</v>
+        <v>63096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94811</v>
+        <v>92695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07914662176210925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06482856797302083</v>
+        <v>0.06472207098772498</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09725447393176551</v>
+        <v>0.09508439490978843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -5391,19 +5391,19 @@
         <v>51785</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42599</v>
+        <v>42142</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63136</v>
+        <v>63302</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05704123498939062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04692259346958622</v>
+        <v>0.04641962414385676</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06954454461953258</v>
+        <v>0.06972754956850953</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -5412,19 +5412,19 @@
         <v>128943</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110918</v>
+        <v>110374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149606</v>
+        <v>149208</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06848739446064074</v>
+        <v>0.06848739446064073</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05891361494352049</v>
+        <v>0.0586245088985024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07946279215162383</v>
+        <v>0.0792510364978915</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>897715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>880062</v>
+        <v>882178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>911673</v>
+        <v>911777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9208533782378907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9027455260682345</v>
+        <v>0.9049156050902115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9351714320269792</v>
+        <v>0.935277929012275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1222</v>
@@ -5462,19 +5462,19 @@
         <v>856065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>844714</v>
+        <v>844548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>865251</v>
+        <v>865708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9429587650106094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9304554553804677</v>
+        <v>0.9302724504314901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9530774065304138</v>
+        <v>0.9535803758561432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2070</v>
@@ -5483,19 +5483,19 @@
         <v>1753780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1733117</v>
+        <v>1733515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1771805</v>
+        <v>1772349</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9315126055393592</v>
+        <v>0.9315126055393591</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9205372078483761</v>
+        <v>0.9207489635021088</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9410863850564797</v>
+        <v>0.9413754911014975</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>323267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>292464</v>
+        <v>294318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>354724</v>
+        <v>358675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09304317584752606</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08417738995761401</v>
+        <v>0.08471096058975365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1020970571255997</v>
+        <v>0.1032343351393158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>534</v>
@@ -5608,19 +5608,19 @@
         <v>287096</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265181</v>
+        <v>263060</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>314457</v>
+        <v>313992</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07774261300271354</v>
+        <v>0.07774261300271353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07180826879641321</v>
+        <v>0.07123389040848933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08515185209137095</v>
+        <v>0.08502582182580894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>954</v>
@@ -5629,19 +5629,19 @@
         <v>610363</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>573496</v>
+        <v>570220</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>650654</v>
+        <v>651426</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08515965074445669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08001578915216999</v>
+        <v>0.07955871693649359</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09078115822310893</v>
+        <v>0.09088885065093096</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3151114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3119657</v>
+        <v>3115706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3181917</v>
+        <v>3180063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9069568241524738</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8979029428744</v>
+        <v>0.8967656648606842</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9158226100423859</v>
+        <v>0.9152890394102464</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4766</v>
@@ -5679,19 +5679,19 @@
         <v>3405803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3378442</v>
+        <v>3378907</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3427718</v>
+        <v>3429839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9222573869972864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9148481479086289</v>
+        <v>0.9149741781741898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9281917312035868</v>
+        <v>0.9287661095915103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7682</v>
@@ -5700,19 +5700,19 @@
         <v>6556917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6516626</v>
+        <v>6515854</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6593784</v>
+        <v>6597060</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9148403492555434</v>
+        <v>0.9148403492555433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9092188417768911</v>
+        <v>0.909111149349069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9199842108478306</v>
+        <v>0.9204412830635065</v>
       </c>
     </row>
     <row r="18">
